--- a/data/trans_dic/P3A$otraNOcobra-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P3A$otraNOcobra-Estudios-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.1496717986424208</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.1311594500364628</v>
+        <v>0.1311594500364627</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.08381231288105652</v>
+        <v>0.08542743923115968</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1300838158199393</v>
+        <v>0.1314045265047893</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1165785330288571</v>
+        <v>0.1172461991075658</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1276989980734811</v>
+        <v>0.1255330896248601</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1670409618113741</v>
+        <v>0.1696748948945646</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1445286740485395</v>
+        <v>0.1447300196385614</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.01473483768414649</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.01693497954435231</v>
+        <v>0.01693497954435232</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01404231809587486</v>
+        <v>0.01423702174306419</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01093593175262993</v>
+        <v>0.01139950813142178</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01367739929771136</v>
+        <v>0.01358199241782975</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02613236413789912</v>
+        <v>0.02601337355701629</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01945919849764757</v>
+        <v>0.01995630582987542</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02046957847418611</v>
+        <v>0.02064986908779888</v>
       </c>
     </row>
     <row r="10">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.004997825118600837</v>
+        <v>0.004997825118600836</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.004023105101107626</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.00450261788109594</v>
+        <v>0.004502617881095939</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.001742966514696759</v>
+        <v>0.001894247301445704</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0009362330069046716</v>
+        <v>0.0009560837499008216</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.002267323481950026</v>
+        <v>0.002077906238498588</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01257246517857842</v>
+        <v>0.01194969617072656</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01007845555365127</v>
+        <v>0.009692942999105862</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.008462070014060994</v>
+        <v>0.008167378986364496</v>
       </c>
     </row>
     <row r="13">
@@ -735,7 +735,7 @@
         <v>0.04238435954109435</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.03652969670601463</v>
+        <v>0.03652969670601462</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02502483089182824</v>
+        <v>0.02554390612039283</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03756367917711369</v>
+        <v>0.03746493288423023</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0332736954360902</v>
+        <v>0.03340717312240021</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03592938930415306</v>
+        <v>0.03623791645996961</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0474497519916291</v>
+        <v>0.04736921603121005</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04006440296300618</v>
+        <v>0.04060912138380353</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>48488</v>
+        <v>49422</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>106934</v>
+        <v>108020</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>163276</v>
+        <v>164211</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>73878</v>
+        <v>72625</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>137314</v>
+        <v>139479</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>202422</v>
+        <v>202704</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>31307</v>
+        <v>31741</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>23733</v>
+        <v>24739</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>60175</v>
+        <v>59756</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>58261</v>
+        <v>57996</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>42229</v>
+        <v>43308</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>90058</v>
+        <v>90852</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1240</v>
+        <v>1348</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>688</v>
+        <v>703</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>3280</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>8946</v>
+        <v>8503</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>7406</v>
+        <v>7123</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>12240</v>
+        <v>11814</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>88077</v>
+        <v>89904</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>140002</v>
+        <v>139634</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>241123</v>
+        <v>242090</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>126457</v>
+        <v>127543</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>176848</v>
+        <v>176548</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>290333</v>
+        <v>294280</v>
       </c>
     </row>
     <row r="20">
